--- a/data/nuc_cell_seg_delivery_20170210/20160708_C01.xlsx
+++ b/data/nuc_cell_seg_delivery_20170210/20160708_C01.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\minipipeline_results\script_spreadsheet_20170214\updated_spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\aibsdata\aics\AssayDevelopment\Analysis\toAnimatedCell\2017_02_10_Nuc_Cell_Seg_For_Release_Group_1\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="197">
   <si>
     <t>DeliveryDate</t>
   </si>
@@ -612,6 +612,9 @@
   </si>
   <si>
     <t>11;</t>
+  </si>
+  <si>
+    <t>Index</t>
   </si>
 </sst>
 </file>
@@ -984,9 +987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1008,7 +1009,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
